--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09232741560221314</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.669358919356831</v>
+        <v>-1.674017228946321</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2068094711979765</v>
+        <v>-0.2002473854812739</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3158055732906852</v>
+        <v>-0.3073216102268745</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0858840160473477</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.812026438492405</v>
+        <v>-1.810765649176243</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.192175815427244</v>
+        <v>-0.1865612892215645</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3177542089628554</v>
+        <v>-0.3089302577688438</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08605131795144358</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.99229570041673</v>
+        <v>-1.98555575053932</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2668740408668107</v>
+        <v>-0.258730065933201</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3494124555495762</v>
+        <v>-0.3396818693416954</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09144278830673137</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.020487956898346</v>
+        <v>-2.014250906130192</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2401487702062464</v>
+        <v>-0.2333710438699256</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3534875910546237</v>
+        <v>-0.3445298482353015</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09719346185866645</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.958319710673894</v>
+        <v>-1.950663681667887</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1921710933698801</v>
+        <v>-0.1892827682822933</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.367052487841993</v>
+        <v>-0.3583450140629576</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1028713848583692</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.711588278362208</v>
+        <v>-1.704928603459984</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1683876644470267</v>
+        <v>-0.1608874633340289</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3848546441039038</v>
+        <v>-0.3746408340257836</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1101177347440307</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.490937555880913</v>
+        <v>-1.475563324113609</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05043381953499576</v>
+        <v>-0.04340110210102429</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3680268056780782</v>
+        <v>-0.3580758567932152</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.11813333513217</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.209488770820259</v>
+        <v>-1.189006059994773</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001815516916260118</v>
+        <v>0.00655511677081694</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3188339860800677</v>
+        <v>-0.312762994329211</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.119094339774402</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.029354087530805</v>
+        <v>-1.000538519477153</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1460069148415727</v>
+        <v>0.1467498518668266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3135279676221631</v>
+        <v>-0.3044364331775303</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1030077861067033</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8007986410223383</v>
+        <v>-0.7657247729423952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1734971587950892</v>
+        <v>0.1689844459743201</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3001755634161694</v>
+        <v>-0.2897114842977624</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06051640064130964</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5762884236556147</v>
+        <v>-0.5343974787613183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1680274423485693</v>
+        <v>0.1590948838351879</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2532131289130421</v>
+        <v>-0.2435706877759541</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01884689067310948</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3727913615582553</v>
+        <v>-0.3168082234709538</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.009905975199745653</v>
+        <v>-0.01707405827814899</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.202137782445956</v>
+        <v>-0.1932980910607314</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1390151429913773</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06466137837243267</v>
+        <v>-0.007818825844900941</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1270948468188245</v>
+        <v>-0.1368899678106786</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09203042285360905</v>
+        <v>-0.08490169025323822</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2941814294308169</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3280768546406658</v>
+        <v>0.3934757751115881</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4050319952198573</v>
+        <v>-0.4113422378771517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03935452722048067</v>
+        <v>0.04117881538206817</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4677841553891038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6833203781652607</v>
+        <v>0.7564288442923137</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6089713566903022</v>
+        <v>-0.6162024005335576</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07866565477496534</v>
+        <v>0.08462961322557365</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6446453147216338</v>
       </c>
       <c r="E17" t="n">
-        <v>1.176237058153542</v>
+        <v>1.25010262747794</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7186930815979305</v>
+        <v>-0.7367848573781607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407921894927035</v>
+        <v>0.1458558090059278</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8242590284528344</v>
       </c>
       <c r="E18" t="n">
-        <v>1.529091220652002</v>
+        <v>1.603276315858025</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9124217810284979</v>
+        <v>-0.931076268644593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1921398412677745</v>
+        <v>0.2017476539841939</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.00776786297723</v>
       </c>
       <c r="E19" t="n">
-        <v>1.895677125964689</v>
+        <v>1.967787663968838</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.017242797401957</v>
+        <v>-1.043221982999024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2565849061511886</v>
+        <v>0.2670804656520216</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.189267966684696</v>
       </c>
       <c r="E20" t="n">
-        <v>2.207376984517622</v>
+        <v>2.284437812658261</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.231616331627504</v>
+        <v>-1.261276360939733</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3266287570490692</v>
+        <v>0.3395388618819775</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.360657459344115</v>
       </c>
       <c r="E21" t="n">
-        <v>2.468831004680394</v>
+        <v>2.544253278915759</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.260886004197651</v>
+        <v>-1.301248576525164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4532790576062865</v>
+        <v>0.4632001001278447</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.515853909118286</v>
       </c>
       <c r="E22" t="n">
-        <v>2.690943990925377</v>
+        <v>2.765157418475583</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.369757758779777</v>
+        <v>-1.416034707955578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4522024285273168</v>
+        <v>0.4670391327646971</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.651345536099501</v>
       </c>
       <c r="E23" t="n">
-        <v>2.765295932158257</v>
+        <v>2.846735681494355</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.478520906042533</v>
+        <v>-1.526337245918966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.550067067394187</v>
+        <v>0.5654294940180817</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.767130227183643</v>
       </c>
       <c r="E24" t="n">
-        <v>2.892778888830643</v>
+        <v>2.968254679716132</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.624373452870058</v>
+        <v>-1.665248368421555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5908074043108127</v>
+        <v>0.6060077069652134</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.862127358868642</v>
       </c>
       <c r="E25" t="n">
-        <v>2.902750299964083</v>
+        <v>2.976378192401165</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.569204082668469</v>
+        <v>-1.620342389900407</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6444452539073763</v>
+        <v>0.6611817992241665</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.93558985108276</v>
       </c>
       <c r="E26" t="n">
-        <v>2.888881617486302</v>
+        <v>2.963442903262316</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.481648482036557</v>
+        <v>-1.542289929713348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5836944119016549</v>
+        <v>0.6047358995152026</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.988956833411321</v>
       </c>
       <c r="E27" t="n">
-        <v>2.964168526077235</v>
+        <v>3.029484023534728</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.526150724653092</v>
+        <v>-1.583995927360892</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6142728813711634</v>
+        <v>0.6329596363792451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.024146105456401</v>
       </c>
       <c r="E28" t="n">
-        <v>2.904890965969051</v>
+        <v>2.968830770714528</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.479977660739297</v>
+        <v>-1.537008308551824</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6321096660537427</v>
+        <v>0.6506909617806974</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.044354309165721</v>
       </c>
       <c r="E29" t="n">
-        <v>2.769045245705196</v>
+        <v>2.839854069896028</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.638941786847256</v>
+        <v>-1.684609590623114</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6018853508865269</v>
+        <v>0.6201896192481327</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.052108142909078</v>
       </c>
       <c r="E30" t="n">
-        <v>2.728512679312582</v>
+        <v>2.790338576378151</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.624588306480115</v>
+        <v>-1.668035956285378</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5525146671278096</v>
+        <v>0.5732397768979758</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.047447198632079</v>
       </c>
       <c r="E31" t="n">
-        <v>2.615751523481721</v>
+        <v>2.67462298665661</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.665948806930533</v>
+        <v>-1.702449523343936</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5476005794311088</v>
+        <v>0.5638019582466568</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.028857303205627</v>
       </c>
       <c r="E32" t="n">
-        <v>2.576482894443512</v>
+        <v>2.633794504669191</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.713489693460739</v>
+        <v>-1.745210900812312</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5389781026846237</v>
+        <v>0.5545058013162549</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.994778113684848</v>
       </c>
       <c r="E33" t="n">
-        <v>2.401053741317186</v>
+        <v>2.456983362754364</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.707080287598802</v>
+        <v>-1.736344451102025</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5351044416271027</v>
+        <v>0.5507155632721629</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.944533692838285</v>
       </c>
       <c r="E34" t="n">
-        <v>2.227036483342668</v>
+        <v>2.285698601974423</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.697728252989595</v>
+        <v>-1.72721435318892</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4767775890681844</v>
+        <v>0.4899395369605007</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.87956189577269</v>
       </c>
       <c r="E35" t="n">
-        <v>2.074345610442652</v>
+        <v>2.132655148791236</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.740330654526719</v>
+        <v>-1.762736816718434</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4138797849810089</v>
+        <v>0.4268481285214053</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.804084472834676</v>
       </c>
       <c r="E36" t="n">
-        <v>1.924631207701015</v>
+        <v>1.980326300289119</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.60484381062252</v>
+        <v>-1.63509724514348</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4171867991548617</v>
+        <v>0.4285606613253805</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.722177108013214</v>
       </c>
       <c r="E37" t="n">
-        <v>1.72355970906958</v>
+        <v>1.782797918699732</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.590055113968339</v>
+        <v>-1.620889361545059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3326588243027722</v>
+        <v>0.3514447425154958</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.635470320293559</v>
       </c>
       <c r="E38" t="n">
-        <v>1.605761692050558</v>
+        <v>1.663627357006936</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.48633512397023</v>
+        <v>-1.519890063598118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2861308190771238</v>
+        <v>0.3037865915607536</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.545253467089469</v>
       </c>
       <c r="E39" t="n">
-        <v>1.432525147560205</v>
+        <v>1.491901870873031</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.447219174786787</v>
+        <v>-1.482917141448326</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2727422124313402</v>
+        <v>0.2878638141296759</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.450544004609994</v>
       </c>
       <c r="E40" t="n">
-        <v>1.201553581700542</v>
+        <v>1.264350648563954</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.522830331316708</v>
+        <v>-1.548873264688188</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2956079882064753</v>
+        <v>0.3063412245946247</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.352486622781677</v>
       </c>
       <c r="E41" t="n">
-        <v>1.120833159102879</v>
+        <v>1.177844131676389</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.462384849020519</v>
+        <v>-1.489315529176413</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1958183239542542</v>
+        <v>0.2074660654518793</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.252790714019361</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9854911249578389</v>
+        <v>1.038677231066589</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.342314735399899</v>
+        <v>-1.377414574795344</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1563387763537904</v>
+        <v>0.1681454937826669</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.152763103586502</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8997637475353183</v>
+        <v>0.9495688605715146</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.279309111002915</v>
+        <v>-1.312111669490821</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1156802884314723</v>
+        <v>0.1269549873973491</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.05462475660322</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7277439198257299</v>
+        <v>0.7801713487180133</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.20507364718501</v>
+        <v>-1.240996698580895</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1002643451574534</v>
+        <v>0.111469787281993</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9591711887090399</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5701546994202265</v>
+        <v>0.620510719148878</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.1764052499192</v>
+        <v>-1.203480739834254</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08620835440423824</v>
+        <v>0.09481194292126781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8669275237954241</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3982560711829783</v>
+        <v>0.4498051974055758</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.033792034443312</v>
+        <v>-1.06893201132635</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01154947944270402</v>
+        <v>0.02113840392966781</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.780553502253448</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3229817547450155</v>
+        <v>0.3690328321769097</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.057525881763844</v>
+        <v>-1.082040442568542</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02716037280744379</v>
+        <v>-0.01789727027858925</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7007658545563419</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1882472919807979</v>
+        <v>0.2331084109569888</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9278361502833956</v>
+        <v>-0.9608787466873002</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01337511334309237</v>
+        <v>-0.01096214203013841</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6271432938875988</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1860688495169178</v>
+        <v>0.2261118959628073</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8995754239700023</v>
+        <v>-0.931945127199551</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09654785773174202</v>
+        <v>-0.08637654616989697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5592765254702522</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006544098636967835</v>
+        <v>0.05100856479459096</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8401664332651898</v>
+        <v>-0.8729044569691229</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1036860344468406</v>
+        <v>-0.09550743109256225</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.493680689822385</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001702415819846919</v>
+        <v>0.0384982608184931</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9366994519554397</v>
+        <v>-0.958450822192694</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1472690498965354</v>
+        <v>-0.137661237180116</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4274729111587777</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04809797515898554</v>
+        <v>-0.01510810839564443</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8983099125964766</v>
+        <v>-0.9215235465974192</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1554712635376333</v>
+        <v>-0.1478923614685705</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3591356785510539</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1132041280733459</v>
+        <v>-0.08221011755581405</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8530458447252327</v>
+        <v>-0.8773565700537218</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1917996248572531</v>
+        <v>-0.1840585988186964</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2874635053555805</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2169650425686085</v>
+        <v>-0.1840979492967289</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8591003092753158</v>
+        <v>-0.882236029329754</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2432401437604809</v>
+        <v>-0.2343878602222858</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2141597823507545</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.299393275912883</v>
+        <v>-0.2657911157113559</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8397996868099268</v>
+        <v>-0.8651956983225527</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2318977619723882</v>
+        <v>-0.2297539479291766</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1410220783679507</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3308531960903198</v>
+        <v>-0.3020659603808515</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8255217593606082</v>
+        <v>-0.8507422677412092</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2354078246128887</v>
+        <v>-0.2332482703784642</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06949098334126071</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3866978204949469</v>
+        <v>-0.3566891459473493</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8261560890664924</v>
+        <v>-0.852036898468479</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3505898218523091</v>
+        <v>-0.3430691584907344</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.001487176866785821</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4058142827231437</v>
+        <v>-0.378867075366476</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7292736381313137</v>
+        <v>-0.7593531435393699</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3600764350963884</v>
+        <v>-0.3523621673828937</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06203627110303045</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5195261461032693</v>
+        <v>-0.4911686176139162</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7265458629940997</v>
+        <v>-0.7576390367162735</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4137001185208602</v>
+        <v>-0.4045251610627985</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1205802612642445</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5362988938598495</v>
+        <v>-0.5101308259682256</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7150051547967231</v>
+        <v>-0.7478643779729962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.415510240510356</v>
+        <v>-0.4089859312525647</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.173872922424484</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5482740313347051</v>
+        <v>-0.5286491609303281</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.727238431407472</v>
+        <v>-0.760379404006458</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4560805833618812</v>
+        <v>-0.4494319265935071</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2224809784415269</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6581909346133747</v>
+        <v>-0.6336897529712082</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7668895470921576</v>
+        <v>-0.8015053756078023</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4898700518388431</v>
+        <v>-0.4828515005769633</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2675084015115073</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7377103806214855</v>
+        <v>-0.7144731363337234</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7814555200406742</v>
+        <v>-0.8162901372141798</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5506397820740201</v>
+        <v>-0.5402937543897106</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3096216238049517</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7663638247056432</v>
+        <v>-0.7438207228503747</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8298998935465061</v>
+        <v>-0.8611677833911443</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5430215295269247</v>
+        <v>-0.5351703221498769</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3497955642701913</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8238076525375118</v>
+        <v>-0.7997991388803124</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8431161450985073</v>
+        <v>-0.8747987889816082</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5806216982965555</v>
+        <v>-0.5723329136037861</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3878178664886842</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8524917899945349</v>
+        <v>-0.8268943040343825</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9484479306768281</v>
+        <v>-0.9766504182827331</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6662089880172805</v>
+        <v>-0.6514210783726605</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4236805707832252</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9808459662505601</v>
+        <v>-0.9526308864916846</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9124682145925763</v>
+        <v>-0.9421628723254745</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6647656124830477</v>
+        <v>-0.6522049398950682</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4574004661884262</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.029187241503947</v>
+        <v>-1.003196250763469</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9969245715746466</v>
+        <v>-1.02410788179951</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7267677996902031</v>
+        <v>-0.7102028224576347</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4881870039843249</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.061369636458061</v>
+        <v>-1.031287770021323</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.962063196076079</v>
+        <v>-0.9917515577324919</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7558478029562333</v>
+        <v>-0.7393898590239133</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5153639780836781</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.214042408138182</v>
+        <v>-1.17440781965427</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9592244525908132</v>
+        <v>-0.9871774581659921</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7782870195494959</v>
+        <v>-0.7605824524731057</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5378478772558239</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.218286750698769</v>
+        <v>-1.177557431915992</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.001338908200334</v>
+        <v>-1.029007803324119</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8080532951524132</v>
+        <v>-0.7885559202968616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5545697768941743</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.195945123291027</v>
+        <v>-1.153452903092393</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.091260259571561</v>
+        <v>-1.115249097989744</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7709127399662021</v>
+        <v>-0.752920127390614</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5639459413761653</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.153094026732737</v>
+        <v>-1.108942003370692</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.160235351486078</v>
+        <v>-1.178308239036853</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7606485612762004</v>
+        <v>-0.743136024532609</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5650998713347755</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.156540341598825</v>
+        <v>-1.109263890280998</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.153086943646691</v>
+        <v>-1.17219396176016</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7684399559266388</v>
+        <v>-0.7455316816352286</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5579943109070697</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.07927882602022</v>
+        <v>-1.031339712652326</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.183023213314709</v>
+        <v>-1.205672561460665</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7834828566689095</v>
+        <v>-0.7585566898639918</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5429402359714777</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9900996246646868</v>
+        <v>-0.9401237305538294</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.266058231030245</v>
+        <v>-1.283991030879224</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7254031251120354</v>
+        <v>-0.7045882962519551</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5201330502164357</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8792587721618137</v>
+        <v>-0.8309332370996401</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.213608765870263</v>
+        <v>-1.23451567484894</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7378142658834913</v>
+        <v>-0.711131493739202</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4895486271872307</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7890690505304057</v>
+        <v>-0.7379716677956214</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.215670730919167</v>
+        <v>-1.236340750020088</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6975319685311642</v>
+        <v>-0.6715795412591584</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4515238383113729</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6679105026874065</v>
+        <v>-0.6161174035010073</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.281005903615677</v>
+        <v>-1.298163499047415</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6746142501250261</v>
+        <v>-0.6481896171166301</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.406103187136068</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4933785404602223</v>
+        <v>-0.4390890469474403</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.19591285589904</v>
+        <v>-1.21735650539808</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6917930948149018</v>
+        <v>-0.6628295689638478</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3535179929252839</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2686149060149693</v>
+        <v>-0.2217720969650608</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.210529197459439</v>
+        <v>-1.229459925431322</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6227755043841092</v>
+        <v>-0.5975187935637184</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2942457917146521</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.09976830085392321</v>
+        <v>-0.05466163489480941</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.218220641895674</v>
+        <v>-1.240199457895956</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4887761085495391</v>
+        <v>-0.4701113898091556</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2298279103915393</v>
       </c>
       <c r="E83" t="n">
-        <v>0.08985063465092803</v>
+        <v>0.1364935432724313</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.13383275474538</v>
+        <v>-1.156742603055912</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4465530456206481</v>
+        <v>-0.4289885662460538</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1621490770500435</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2385608131931744</v>
+        <v>0.2862913690274965</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.10644639605387</v>
+        <v>-1.132006892564672</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3549514288374333</v>
+        <v>-0.3376655508473091</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.09427056540412859</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4503025874479069</v>
+        <v>0.4889542009905665</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.085565458390695</v>
+        <v>-1.107722925561245</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2784210451406726</v>
+        <v>-0.2678703949705941</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.030199621522878</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6082853126337355</v>
+        <v>0.6471305305283153</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.97715489141111</v>
+        <v>-1.001855973481682</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2208371296070082</v>
+        <v>-0.2071400152134496</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02600474390924429</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8358444050384186</v>
+        <v>0.8678394917170977</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9315319471802096</v>
+        <v>-0.9512103342347108</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1629210960387494</v>
+        <v>-0.1494899908766907</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07073982861620426</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9447114375631807</v>
+        <v>0.9750726923939497</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7567245316067978</v>
+        <v>-0.7786852463871849</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09893407071963385</v>
+        <v>-0.08881155375054914</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1023564079064968</v>
       </c>
       <c r="E89" t="n">
-        <v>1.190154535224082</v>
+        <v>1.216936470573013</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5984647790556201</v>
+        <v>-0.6215902679857699</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02556297167964405</v>
+        <v>0.02918164163951433</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.119449222607532</v>
       </c>
       <c r="E90" t="n">
-        <v>1.36127874605365</v>
+        <v>1.382128203334399</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5256726907719486</v>
+        <v>-0.5463663201596887</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04727026938150183</v>
+        <v>0.0504057154711328</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1216901115634529</v>
       </c>
       <c r="E91" t="n">
-        <v>1.443281994235174</v>
+        <v>1.460575742320904</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3070178245364635</v>
+        <v>-0.3319235290928043</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07737653311462009</v>
+        <v>0.07798567851456345</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1102961727581366</v>
       </c>
       <c r="E92" t="n">
-        <v>1.584301515350745</v>
+        <v>1.593731463906457</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2177803844734423</v>
+        <v>-0.2373643303806655</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09037950507568507</v>
+        <v>0.09179612228485569</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08674702369631053</v>
       </c>
       <c r="E93" t="n">
-        <v>1.596383686125849</v>
+        <v>1.602950493899915</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01248107048219358</v>
+        <v>-0.03424818091066079</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1175832775491249</v>
+        <v>0.1160596270397058</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05335954234284765</v>
       </c>
       <c r="E94" t="n">
-        <v>1.546010352186863</v>
+        <v>1.553430278324674</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1453836032695376</v>
+        <v>0.124630161155188</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1316062139007927</v>
+        <v>0.1277388489197569</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01395459137847401</v>
       </c>
       <c r="E95" t="n">
-        <v>1.539868529575548</v>
+        <v>1.545319357792612</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1979904703416492</v>
+        <v>0.1829160892169525</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1433106200867846</v>
+        <v>0.1386090249714594</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02640953946161408</v>
       </c>
       <c r="E96" t="n">
-        <v>1.51017465885221</v>
+        <v>1.508359814805351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2882714850820927</v>
+        <v>0.2739148566767092</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05190103363636846</v>
+        <v>0.05254480745698044</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06228683137614803</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352555532083402</v>
+        <v>1.351253818270086</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3040148243333422</v>
+        <v>0.2920743152791552</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03116333171323189</v>
+        <v>0.03090676659645988</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09044582766178917</v>
       </c>
       <c r="E98" t="n">
-        <v>1.29090907319766</v>
+        <v>1.286035909998114</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2574569127443892</v>
+        <v>0.2443311672918627</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02816167724891148</v>
+        <v>0.02619730138552822</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1113486500767959</v>
       </c>
       <c r="E99" t="n">
-        <v>1.187127696453821</v>
+        <v>1.18082217585389</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2295479797046067</v>
+        <v>0.2213772464459348</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0618567045785953</v>
+        <v>0.05730306726067241</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1277557859539512</v>
       </c>
       <c r="E100" t="n">
-        <v>1.070612505018659</v>
+        <v>1.063996902651832</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2268674251410316</v>
+        <v>0.2151882032609805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0252214095303218</v>
+        <v>0.02265575836260168</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1411355066693884</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9097933973762462</v>
+        <v>0.9035193571587417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1926891739411085</v>
+        <v>0.1842555794891794</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0143635973512692</v>
+        <v>-0.0157329939868008</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1550821500418749</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7399441420349316</v>
+        <v>0.7349308911335889</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1552715913895485</v>
+        <v>0.1511382171770129</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03744816178426509</v>
+        <v>-0.03912449214845032</v>
       </c>
     </row>
   </sheetData>
